--- a/docs/Baernreither Personenregister 2023.xlsx
+++ b/docs/Baernreither Personenregister 2023.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="811">
   <si>
     <t>Abrahamowicz</t>
   </si>
@@ -2472,11 +2478,29 @@
   <si>
     <t xml:space="preserve"> &lt;persName key="MelineFelix" ref="https://d-nb.info/gnd/117560707"&gt;</t>
   </si>
+  <si>
+    <t>Baernreither</t>
+  </si>
+  <si>
+    <t>Joseph Maria</t>
+  </si>
+  <si>
+    <t>1885–1907 MöAH, 1907–1918 MöHH</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/118505858</t>
+  </si>
+  <si>
+    <t>BaernreitherJosephMaria</t>
+  </si>
+  <si>
+    <t>&lt;persName key="BaernreitherJosephMaria" ref="https://d-nb.info/gnd/118505858"&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2745,8 +2769,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -3074,8 +3098,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J134" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J135" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J135"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Nachname" dataDxfId="9"/>
     <tableColumn id="2" name="Namenszusatz" dataDxfId="8"/>
@@ -3355,24 +3379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="6" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="87.5" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>382</v>
       </c>
@@ -3404,7 +3428,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3418,7 +3442,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +3472,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3502,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3508,7 +3532,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3538,7 +3562,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3568,1827 +3592,1825 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1845</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1925</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G8" t="s">
+        <v>808</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1848</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1929</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E10" s="1">
         <v>1929</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1849</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1929</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>401</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>1856</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>1909</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>402</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>1854</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>1915</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>403</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>1849</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>1927</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>404</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>1831</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>1899</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>405</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>1849</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>1912</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>406</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>1834</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>1924</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>407</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1863</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1932</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>408</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="E18" s="1">
-        <v>1913</v>
+        <v>1932</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1855</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1913</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>1872</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>1932</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>410</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>1860</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>1917</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>411</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>1866</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>1936</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>412</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>1859</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>1904</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>413</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>1852</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>1924</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>414</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>1866</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>1929</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>415</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>1848</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>1909</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>416</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>1864</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>1940</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>1861</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>1949</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>418</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>1829</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>1899</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>419</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>1833</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>1914</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>420</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>1852</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>1921</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>421</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>1863</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>1941</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>423</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>1851</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>1918</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>424</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>425</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>1849</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>1921</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>426</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>1848</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>1923</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>427</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>1856</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>1935</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>428</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+    <row r="39" spans="1:10" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B39" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C39" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D39" s="41">
         <v>1848</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E39" s="41">
         <v>1927</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F39" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42" t="s">
+      <c r="G39" s="41"/>
+      <c r="H39" s="42" t="s">
         <v>608</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I39" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="J38" s="41"/>
-    </row>
-    <row r="39" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B40" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C40" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D40" s="41">
         <v>1930</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E40" s="41">
         <v>1916</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F40" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G40" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H40" s="42" t="s">
         <v>600</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I40" s="43" t="s">
         <v>796</v>
       </c>
-      <c r="J39" s="41"/>
-    </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1850</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1908</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" t="s">
-        <v>430</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1908</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>430</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>1845</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>1924</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>431</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>1836</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>1911</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>432</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>1849</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>1907</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>434</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>1863</v>
       </c>
-      <c r="E44" s="1">
-        <v>1918</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" t="s">
-        <v>435</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D45" s="1"/>
       <c r="E45" s="1">
         <v>1918</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>1918</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>437</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>1801</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>1859</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>438</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J47" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>1869</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="8">
         <v>1954</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>439</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>1850</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>1917</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>440</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1842</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1916</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G49" t="s">
-        <v>774</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1842</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1916</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G50" t="s">
+        <v>774</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>1856</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>1945</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G51" s="40" t="s">
         <v>775</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+    <row r="52" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
         <v>757</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C52" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D52" s="43">
         <v>1852</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E52" s="43">
         <v>1911</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F52" s="43" t="s">
         <v>758</v>
       </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43" t="s">
+      <c r="G52" s="43"/>
+      <c r="H52" s="43" t="s">
         <v>789</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D53" s="1">
         <v>1847</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>1923</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G53" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D54" s="1">
         <v>1854</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <v>1912</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:10" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <v>1850</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>1918</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="G55" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D56" s="1">
         <v>1852</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E56" s="1">
         <v>1910</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G56" s="40" t="s">
         <v>779</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:10" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D57" s="1">
         <v>1837</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57" s="1">
         <v>1914</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G57" s="40" t="s">
         <v>780</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>1852</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>1909</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G58" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>1856</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>1919</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>442</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="8">
-        <v>1841</v>
-      </c>
-      <c r="E59" s="8">
-        <v>1914</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" t="s">
-        <v>443</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1841</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1914</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" t="s">
+        <v>443</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <v>1802</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="8">
         <v>1894</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>444</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H61" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>1860</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>1937</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>445</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>1857</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>1928</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>447</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>1841</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>1921</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>446</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>1821</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>1879</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>448</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>1851</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>1921</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>450</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="J66" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="8">
-        <v>1850</v>
-      </c>
-      <c r="E66" s="8">
-        <v>1918</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" t="s">
-        <v>451</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1850</v>
+      </c>
+      <c r="E67" s="8">
+        <v>1918</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" t="s">
+        <v>451</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <v>1872</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="8">
         <v>1962</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>452</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H68" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <v>1861</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E69" s="8">
         <v>1939</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>453</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H69" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="8">
-        <v>1846</v>
-      </c>
-      <c r="E69" s="8">
-        <v>1920</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G69" t="s">
-        <v>454</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>191</v>
       </c>
@@ -5396,1887 +5418,1917 @@
         <v>192</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1846</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1920</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" t="s">
+        <v>454</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>1872</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>1951</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>455</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H71" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <v>1829</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="8">
         <v>1910</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F72" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>456</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="8">
-        <v>1835</v>
-      </c>
-      <c r="E72" s="8">
-        <v>1908</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G72" t="s">
-        <v>457</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1835</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1908</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" t="s">
+        <v>457</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>1850</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>1926</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>458</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>1860</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>1945</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>459</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H75" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>1845</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>1929</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F76" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>460</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H76" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>1844</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>1910</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F77" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G77" t="s">
         <v>461</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H77" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="J76" s="11"/>
-    </row>
-    <row r="77" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>1846</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>1916</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F78" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>462</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H78" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8" t="s">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>1838</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>1925</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F79" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="G79" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H79" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B80" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C80" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28">
         <v>1916</v>
       </c>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28" t="s">
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="29"/>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="I80" s="1"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>1863</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>1931</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F81" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>464</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H81" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="J80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>1846</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>1914</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F82" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>465</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H82" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="33" t="s">
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J82" s="34"/>
-    </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="J83" s="34"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B84" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>1855</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="14">
         <v>1928</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F84" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>466</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H84" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="J83" s="15" t="s">
+      <c r="J84" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B85" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>1853</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>1910</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>468</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H85" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="8">
-        <v>1850</v>
-      </c>
-      <c r="E85" s="8">
-        <v>1918</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G85" t="s">
-        <v>469</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1850</v>
+      </c>
+      <c r="E86" s="8">
+        <v>1918</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G86" t="s">
+        <v>469</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>1856</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>1908</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G87" t="s">
         <v>470</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H87" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35" t="s">
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B88" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C88" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D88" s="36">
         <v>1847</v>
       </c>
-      <c r="E87" s="36">
+      <c r="E88" s="36">
         <v>1907</v>
       </c>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="J87" s="37"/>
-    </row>
-    <row r="88" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B88" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="J88" s="37"/>
+    </row>
+    <row r="89" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="B89" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J88" s="37"/>
-    </row>
-    <row r="89" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="J89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <v>1858</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="8">
         <v>1917</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F90" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>471</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H90" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="J89" s="6" t="s">
+      <c r="J90" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+    <row r="91" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B91" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36" t="s">
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J90" s="37"/>
-    </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="J91" s="37"/>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>1853</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="8">
         <v>1927</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F92" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G92" t="s">
         <v>472</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D93" s="10">
         <v>1868</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E93" s="10">
         <v>1932</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F93" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>473</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H93" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="J92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D94" s="8">
         <v>1834</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E94" s="8">
         <v>1914</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F94" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G94" t="s">
         <v>474</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H94" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="J93" s="12"/>
-    </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B95" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D95" s="8">
         <v>1797</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E95" s="8">
         <v>1875</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F95" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G95" t="s">
         <v>475</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H95" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="J94" s="12"/>
-    </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D96" s="8">
         <v>1857</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E96" s="8">
         <v>1912</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>476</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H96" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J96" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D97" s="8">
         <v>1853</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E97" s="8">
         <v>1914</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>477</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J96" s="12"/>
-    </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C98" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D98" s="17">
         <v>1845</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E98" s="17">
         <v>1933</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F98" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G98" t="s">
         <v>478</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H98" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="J97" s="18"/>
-    </row>
-    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="J98" s="18"/>
+    </row>
+    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B99" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D99" s="8">
         <v>1831</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E99" s="8">
         <v>1903</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F99" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G99" t="s">
         <v>479</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H99" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="35" t="s">
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B100" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C100" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D100" s="36">
         <v>1869</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E100" s="36">
         <v>1951</v>
       </c>
-      <c r="F99" s="36" t="s">
+      <c r="F100" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36" t="s">
+      <c r="G100" s="36"/>
+      <c r="H100" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="J99" s="37"/>
-    </row>
-    <row r="100" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="J100" s="37"/>
+    </row>
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B101" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D101" s="8">
         <v>1838</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E101" s="8">
         <v>1917</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F101" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>480</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H101" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="J100" s="6"/>
-    </row>
-    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D102" s="8">
         <v>1841</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E102" s="8">
         <v>1907</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F102" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>481</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H102" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="J101" s="6"/>
-    </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B103" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D103" s="8">
         <v>1842</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E103" s="8">
         <v>1921</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G103" t="s">
         <v>482</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H103" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="J102" s="6"/>
-    </row>
-    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D104" s="8">
         <v>1858</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E104" s="8">
         <v>1926</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F104" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G104" t="s">
         <v>483</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H104" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="J103" s="6"/>
-    </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B105" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D105" s="8">
         <v>1859</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E105" s="8">
         <v>1913</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F105" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G105" t="s">
         <v>484</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H105" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D106" s="8">
         <v>1836</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E106" s="8">
         <v>1914</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F106" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>485</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H106" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="J105" s="6"/>
-    </row>
-    <row r="106" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D107" s="8">
         <v>1866</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E107" s="8">
         <v>1934</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F107" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G107" t="s">
         <v>486</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H107" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C108" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D108" s="8">
         <v>1860</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E108" s="8">
         <v>1936</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F108" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>487</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H108" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J108" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8" t="s">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D109" s="8">
         <v>1847</v>
-      </c>
-      <c r="E108" s="8">
-        <v>1917</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G108" t="s">
-        <v>488</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="J108" s="6"/>
-    </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="8">
-        <v>1849</v>
       </c>
       <c r="E109" s="8">
         <v>1917</v>
       </c>
       <c r="F109" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G109" t="s">
+        <v>488</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D110" s="8">
+        <v>1849</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1917</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G110" t="s">
         <v>489</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H110" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8" t="s">
+      <c r="B111" s="8"/>
+      <c r="C111" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D111" s="8">
         <v>1823</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E111" s="8">
         <v>1896</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G111" t="s">
         <v>490</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="H111" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J111" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5" t="s">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D112" s="5">
         <v>1869</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E112" s="5">
         <v>1943</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G112" t="s">
         <v>493</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="J112" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B113" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D113" s="8">
         <v>1846</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E113" s="8">
         <v>1907</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F113" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>495</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="H113" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J112" s="6"/>
-    </row>
-    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D114" s="8">
         <v>1815</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E114" s="8">
         <v>1905</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F114" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G114" t="s">
         <v>496</v>
       </c>
-      <c r="H113" s="8" t="s">
+      <c r="H114" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J114" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D115" s="8">
         <v>1859</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F115" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>497</v>
       </c>
-      <c r="H114" s="8" t="s">
+      <c r="H115" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8" t="s">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D116" s="8">
         <v>1843</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E116" s="8">
         <v>1915</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F116" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G116" t="s">
         <v>498</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H116" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="35" t="s">
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B117" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C117" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36" t="s">
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36" t="s">
+      <c r="G117" s="36"/>
+      <c r="H117" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I117" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="J116" s="37"/>
-    </row>
-    <row r="117" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D118" s="8">
         <v>1861</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E118" s="8">
         <v>1941</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G118" t="s">
         <v>499</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="H118" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I118" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D118" s="8">
-        <v>1833</v>
-      </c>
-      <c r="E118" s="8">
-        <v>1895</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G118" t="s">
-        <v>501</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" s="8">
+        <v>1833</v>
+      </c>
+      <c r="E119" s="8">
+        <v>1895</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G119" t="s">
+        <v>501</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D120" s="8">
         <v>1842</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E120" s="8">
         <v>1927</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F120" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G120" t="s">
         <v>502</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H120" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I120" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B121" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D121" s="8">
         <v>1847</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E121" s="8">
         <v>1916</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>503</v>
       </c>
-      <c r="H120" s="8" t="s">
+      <c r="H121" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D121" s="8">
-        <v>1849</v>
-      </c>
-      <c r="E121" s="8">
-        <v>1913</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G121" t="s">
-        <v>504</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D122" s="8">
+        <v>1849</v>
+      </c>
+      <c r="E122" s="8">
+        <v>1913</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G122" t="s">
+        <v>504</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D123" s="8">
         <v>1861</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F123" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G123" t="s">
         <v>505</v>
       </c>
-      <c r="H122" s="8" t="s">
+      <c r="H123" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B124" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D124" s="8">
         <v>1847</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E124" s="8">
         <v>1926</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F124" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G124" t="s">
         <v>506</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H124" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I124" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="27" t="s">
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A125" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="B125" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C125" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="28">
+      <c r="D125" s="28">
         <v>1845</v>
       </c>
-      <c r="E124" s="28">
+      <c r="E125" s="28">
         <v>1921</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F125" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28" t="s">
+      <c r="G125" s="28"/>
+      <c r="H125" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="J124" s="29"/>
-    </row>
-    <row r="125" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+      <c r="J125" s="29"/>
+    </row>
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A126" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B126" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C126" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D126" s="20">
         <v>1855</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E126" s="20">
         <v>1940</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F126" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>507</v>
       </c>
-      <c r="H125" s="21" t="s">
+      <c r="H126" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="J125" s="22"/>
-    </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
+      <c r="J126" s="22"/>
+    </row>
+    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="s">
         <v>355</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D126" s="24">
-        <v>1846</v>
-      </c>
-      <c r="E126" s="24">
-        <v>1907</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="G126" t="s">
-        <v>508</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
-        <v>357</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="24">
+        <v>1846</v>
+      </c>
+      <c r="E127" s="24">
+        <v>1907</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="G127" t="s">
+        <v>508</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A128" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D128" s="24">
         <v>1858</v>
       </c>
-      <c r="E127" s="24">
+      <c r="E128" s="24">
         <v>1940</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F128" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G128" t="s">
         <v>509</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H128" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
+    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B129" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C129" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="D128" s="24">
+      <c r="D129" s="24">
         <v>1856</v>
       </c>
-      <c r="E128" s="24">
+      <c r="E129" s="24">
         <v>1945</v>
       </c>
-      <c r="F128" s="24" t="s">
+      <c r="F129" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G129" t="s">
         <v>510</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H129" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B130" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C130" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="D129" s="21">
+      <c r="D130" s="21">
         <v>1849</v>
       </c>
-      <c r="E129" s="21">
+      <c r="E130" s="21">
         <v>1925</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F130" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>513</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H130" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8" t="s">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D131" s="8">
         <v>1848</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E131" s="8">
         <v>1921</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F131" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>514</v>
       </c>
-      <c r="H130" s="8" t="s">
+      <c r="H131" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I131" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
+      <c r="J131" s="12"/>
+    </row>
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B132" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D132" s="8">
         <v>1851</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E132" s="8">
         <v>1927</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F132" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>515</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H132" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J132" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D132" s="8">
-        <v>1862</v>
-      </c>
-      <c r="E132" s="8">
-        <v>1941</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="G132" t="s">
-        <v>516</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="J132" s="12"/>
-    </row>
-    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D133" s="8">
+        <v>1862</v>
+      </c>
+      <c r="E133" s="8">
+        <v>1941</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G133" t="s">
+        <v>516</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J133" s="12"/>
+    </row>
+    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D134" s="8">
         <v>1849</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E134" s="8">
         <v>1934</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F134" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G134" t="s">
         <v>517</v>
       </c>
-      <c r="H133" s="8" t="s">
+      <c r="H134" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B135" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C135" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D135" s="8">
         <v>1864</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E135" s="8">
         <v>1937</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F135" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>518</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="H135" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="J134" s="6"/>
+      <c r="J135" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G39" r:id="rId1"/>
-    <hyperlink ref="G50" r:id="rId2"/>
-    <hyperlink ref="G52" r:id="rId3"/>
-    <hyperlink ref="G53" r:id="rId4"/>
-    <hyperlink ref="G54" r:id="rId5"/>
-    <hyperlink ref="G55" r:id="rId6"/>
-    <hyperlink ref="G56" r:id="rId7"/>
-    <hyperlink ref="G57" r:id="rId8"/>
-    <hyperlink ref="G78" r:id="rId9"/>
+    <hyperlink ref="G40" r:id="rId1"/>
+    <hyperlink ref="G51" r:id="rId2"/>
+    <hyperlink ref="G53" r:id="rId3"/>
+    <hyperlink ref="G54" r:id="rId4"/>
+    <hyperlink ref="G55" r:id="rId5"/>
+    <hyperlink ref="G56" r:id="rId6"/>
+    <hyperlink ref="G57" r:id="rId7"/>
+    <hyperlink ref="G58" r:id="rId8"/>
+    <hyperlink ref="G79" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
